--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N2">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q2">
-        <v>0.165959801232</v>
+        <v>0.02380725902333334</v>
       </c>
       <c r="R2">
-        <v>1.493638211088</v>
+        <v>0.21426533121</v>
       </c>
       <c r="S2">
-        <v>0.000750760273204832</v>
+        <v>0.0001144020040790232</v>
       </c>
       <c r="T2">
-        <v>0.000750760273204832</v>
+        <v>0.0001144020040790232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q3">
-        <v>0.6943371058826666</v>
+        <v>0.2382348748165556</v>
       </c>
       <c r="R3">
-        <v>6.249033952943999</v>
+        <v>2.144113873349</v>
       </c>
       <c r="S3">
-        <v>0.003141005902869272</v>
+        <v>0.001144799873593897</v>
       </c>
       <c r="T3">
-        <v>0.003141005902869273</v>
+        <v>0.001144799873593897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q4">
-        <v>0.9439501349813333</v>
+        <v>0.3238799141441112</v>
       </c>
       <c r="R4">
-        <v>8.495551214832</v>
+        <v>2.914919227297001</v>
       </c>
       <c r="S4">
-        <v>0.004270192275294662</v>
+        <v>0.001556353514812998</v>
       </c>
       <c r="T4">
-        <v>0.004270192275294662</v>
+        <v>0.001556353514812997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N5">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q5">
-        <v>19.958275941755</v>
+        <v>8.344389182183333</v>
       </c>
       <c r="R5">
-        <v>179.624483475795</v>
+        <v>75.09950263965</v>
       </c>
       <c r="S5">
-        <v>0.09028620537923525</v>
+        <v>0.04009763762898885</v>
       </c>
       <c r="T5">
-        <v>0.09028620537923523</v>
+        <v>0.04009763762898883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.353977</v>
       </c>
       <c r="O6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q6">
         <v>83.50077219262056</v>
@@ -818,10 +818,10 @@
         <v>751.506949733585</v>
       </c>
       <c r="S6">
-        <v>0.3777364282119825</v>
+        <v>0.4012497058825323</v>
       </c>
       <c r="T6">
-        <v>0.3777364282119825</v>
+        <v>0.4012497058825323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.266181</v>
       </c>
       <c r="O7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q7">
         <v>113.5191602385561</v>
@@ -880,10 +880,10 @@
         <v>1021.672442147005</v>
       </c>
       <c r="S7">
-        <v>0.5135320428321197</v>
+        <v>0.5454983045267955</v>
       </c>
       <c r="T7">
-        <v>0.5135320428321197</v>
+        <v>0.5454983045267954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N8">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P8">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q8">
-        <v>0.209095064911</v>
+        <v>0.08742090763666664</v>
       </c>
       <c r="R8">
-        <v>1.881855584199</v>
+        <v>0.7867881687299999</v>
       </c>
       <c r="S8">
-        <v>0.0009458933241244195</v>
+        <v>0.0004200872944776975</v>
       </c>
       <c r="T8">
-        <v>0.0009458933241244195</v>
+        <v>0.0004200872944776974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.353977</v>
       </c>
       <c r="O9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P9">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q9">
         <v>0.874804989804111</v>
@@ -1004,10 +1004,10 @@
         <v>7.873244908236999</v>
       </c>
       <c r="S9">
-        <v>0.003957397082129355</v>
+        <v>0.004203736512205482</v>
       </c>
       <c r="T9">
-        <v>0.003957397082129356</v>
+        <v>0.004203736512205482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>41.266181</v>
       </c>
       <c r="O10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P10">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q10">
         <v>1.189295921551222</v>
@@ -1066,10 +1066,10 @@
         <v>10.703663293961</v>
       </c>
       <c r="S10">
-        <v>0.005380074719040008</v>
+        <v>0.005714972762514123</v>
       </c>
       <c r="T10">
-        <v>0.005380074719040008</v>
+        <v>0.005714972762514122</v>
       </c>
     </row>
   </sheetData>
